--- a/biology/Botanique/Trichilia/Trichilia.xlsx
+++ b/biology/Botanique/Trichilia/Trichilia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Trichilia est un genre de plantes de la famille des Meliaceae.
 </t>
@@ -511,14 +523,16 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (28 juillet 2017)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (28 juillet 2017) :
 Trichilia hirta L.
 Trichilia pallida Sw.
 Trichilia roka (Forsskal) Chiov.
 Trichilia triacantha Urban
-Selon Catalogue of Life                                   (28 juillet 2017)[3] :
+Selon Catalogue of Life                                   (28 juillet 2017) :
 Trichilia acuminata (H. &amp; B. ex Roemer &amp; Schultes) C. DC.
 Trichilia adolfii Harms
 Trichilia amapaensis T.D.Penn.
@@ -631,7 +645,7 @@
 Trichilia watorikensis T.D.Penn.
 Trichilia welwitschii C. DC.
 Trichilia zewaldae J. de Wilde
-Selon GRIN            (28 juillet 2017)[4] :
+Selon GRIN            (28 juillet 2017) :
 Trichilia catigua A. Juss.
 Trichilia dregeana Sond.
 Trichilia elegans A. Juss.
@@ -641,12 +655,12 @@
 Trichilia rubra C. DC.
 Trichilia spondiodes Jacq.
 Trichilia triacantha Urb.
-Selon ITIS      (28 juillet 2017)[5] :
+Selon ITIS      (28 juillet 2017) :
 Trichilia emetica Vahl
 Trichilia hirta L.
 Trichilia pallida Sw.
 Trichilia triacantha Urb.
-Selon NCBI  (28 juillet 2017)[6] :
+Selon NCBI  (28 juillet 2017) :
 Trichilia acuminata
 Trichilia adolfi
 Trichilia amapaensis
@@ -719,7 +733,7 @@
 Trichilia trimera
 Trichilia tuberculata
 Trichilia ulei
-Selon The Plant List            (28 juillet 2017)[7] :
+Selon The Plant List            (28 juillet 2017) :
 Trichilia acuminata (Humb. &amp; Bonpl. ex Schult.) C.DC.
 Trichilia adolfi Harms
 Trichilia americana (Sessé &amp; Moc.) T.D.Penn.
@@ -818,7 +832,7 @@
 Trichilia tuberculata (Triana &amp; Planch.) C. DC.
 Trichilia ulei C. DC.
 Trichilia welwitschii C.DC.
-Selon Tropicos                                           (28 juillet 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (28 juillet 2017) (Attention liste brute contenant possiblement des synonymes) :
 Trichilia acariaeantha Harms
 Trichilia acuminata (Humb. &amp; Bonpl. ex Roem. &amp; Schult.) C. DC.
 Trichilia acutanthera C. DC.
